--- a/jobstest.xlsx
+++ b/jobstest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="182">
   <si>
     <t>Job Title</t>
   </si>
@@ -149,7 +149,7 @@
     <t>Tricon Infotech Pvt. Ltd.</t>
   </si>
   <si>
-    <t>not provided in dashboard</t>
+    <t>-</t>
   </si>
   <si>
     <t>Bangalore</t>
@@ -300,12 +300,12 @@
     <t>We need new profiles on this with strong Java with Spring MVC / Struts MVC, Hibernate, Web Services, Weblogic Application Server &amp; Oracle Database experience. Additional Information All your information</t>
   </si>
   <si>
+    <t>Responsibilities As an developer you have a huge impact on how we design, build and deliver our product/service to our users You are responsible for writing efficient and maintainable code.</t>
+  </si>
+  <si>
     <t>Responsibilities As an developer you have a huge impact on how we design , build and deliver our product /service to our users You are responsible for writing efficient and</t>
   </si>
   <si>
-    <t>Responsibilities As an developer you have a huge impact on how we design, build and deliver our product/service to our users You are responsible for writing efficient and maintainable code.</t>
-  </si>
-  <si>
     <t>Skills/Requirements: Should have good experience in Spring, Springboot, Microservices, Should have good exp on Datastructures, Algorithms Exp in AWS is a must Good communication skills are a must. ,</t>
   </si>
   <si>
@@ -396,37 +396,40 @@
     <t>https://www.shine.com/jobs/javaj2ee-developer/sailotech/10296282/</t>
   </si>
   <si>
+    <t>https://www.shine.com/jobs/senior-java-j2ee-developer-software-engineer/snapooh-media-pvt-ltd-share/10180301/</t>
+  </si>
+  <si>
     <t>https://www.shine.com/jobs/senior-java-j2ee-developer-software-engineer/snapooh-media-pvt-ltd-share/10180282/</t>
   </si>
   <si>
-    <t>https://www.shine.com/jobs/senior-java-j2ee-developer-software-engineer/snapooh-media-pvt-ltd-share/10180301/</t>
-  </si>
-  <si>
     <t>https://www.shine.com/jobs/javaj2ee-developers/tricon-infotech-pvt-ltd/10432939/</t>
   </si>
   <si>
+    <t>MTS 1, Software Engineer</t>
+  </si>
+  <si>
+    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
+  </si>
+  <si>
+    <t>Java Developers - Freshers</t>
+  </si>
+  <si>
+    <t>SE Specialist - Java</t>
+  </si>
+  <si>
+    <t>Java Internship Program - [Freshers]</t>
+  </si>
+  <si>
     <t>Java Developer</t>
   </si>
   <si>
-    <t>Software Engineer - Java</t>
-  </si>
-  <si>
-    <t>Principal Software Engineer</t>
-  </si>
-  <si>
-    <t>Java Developers - Freshers</t>
-  </si>
-  <si>
-    <t>Java Internship Program - [Freshers]</t>
+    <t>Java Freshers</t>
   </si>
   <si>
     <t>Java Intern</t>
   </si>
   <si>
-    <t>SE Specialist - Java</t>
-  </si>
-  <si>
-    <t>Java Freshers</t>
+    <t>Software Engr II</t>
   </si>
   <si>
     <t>Java / J2EE - Architecture</t>
@@ -435,136 +438,76 @@
     <t>Java Developers/Leads</t>
   </si>
   <si>
-    <t>Software Engr II</t>
-  </si>
-  <si>
-    <t>JAVA DEVELOPER</t>
-  </si>
-  <si>
-    <t>Mgr, Engineering</t>
-  </si>
-  <si>
-    <t>Testing Lead - PLM</t>
-  </si>
-  <si>
-    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
-  </si>
-  <si>
-    <t>Software Engineer 3-3</t>
-  </si>
-  <si>
-    <t>Manager - Java Development</t>
+    <t>Java Software Consultant for a Multi-national</t>
+  </si>
+  <si>
+    <t>Tech Lead - Java Development</t>
+  </si>
+  <si>
+    <t>Software Engineer, Principal</t>
+  </si>
+  <si>
+    <t>Python/ Machine Learning Internships - B.E/B.Tech ( Pursuing...</t>
   </si>
   <si>
     <t>not provided</t>
   </si>
   <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Flixmind infotech PVT LTD</t>
+  </si>
+  <si>
+    <t>BigSpire Software</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Fennec Technologies</t>
+  </si>
+  <si>
+    <t>Varnaaz Technologies</t>
+  </si>
+  <si>
+    <t>Chegus Infotech</t>
+  </si>
+  <si>
+    <t>InstaSafe</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Zycus</t>
+  </si>
+  <si>
+    <t>Keyfalcon Solutions</t>
+  </si>
+  <si>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
+    <t>MWi India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>State Street</t>
+  </si>
+  <si>
+    <t>Epsilon India</t>
+  </si>
+  <si>
+    <t>TechCiti Technologies Private Limited</t>
+  </si>
+  <si>
     <t>Applied Materials Inc.</t>
   </si>
   <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>Shaw Academy</t>
-  </si>
-  <si>
-    <t>BigSpire Software</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>InstaSafe</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Chegus Infotech</t>
-  </si>
-  <si>
-    <t>Keyfalcon Solutions</t>
-  </si>
-  <si>
-    <t>Zycus</t>
-  </si>
-  <si>
-    <t>Careator Technologies</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>CGI</t>
-  </si>
-  <si>
-    <t>Epsilon India</t>
-  </si>
-  <si>
-    <t>Flixmind infotech PVT LTD</t>
-  </si>
-  <si>
-    <t>State Street</t>
-  </si>
-  <si>
     <t>Bengaluru, Karnataka</t>
   </si>
   <si>
-    <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
-  </si>
-  <si>
-    <t>We're a purpose-driven company whose beliefs are the foundation for how we conduct business every day.
-We hold ourselves to our One Team Behaviors which demand…</t>
-  </si>
-  <si>
-    <t>You will implement solutions that include database schema, business logic, and some presentation layer work.
-Independently investigate, present options, review…</t>
-  </si>
-  <si>
-    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
-Qualifications: Any Degree with Computer Background.</t>
-  </si>
-  <si>
-    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
-Java (Core and advanced) and J2ee Projects.</t>
-  </si>
-  <si>
-    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
-  </si>
-  <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Applicant should have knowledge in the following technical skills.
-Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
-  </si>
-  <si>
-    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
-Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>CGI is hiring for JAVA Developer for Bangalore location.
-Primary skills-Java Spring/Spring boot, MVC, Angular/Full stack.
-Years of Experience- 3 yrs to 10 yrs.</t>
-  </si>
-  <si>
-    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
-How did we get this far?</t>
-  </si>
-  <si>
-    <t>10+ Years of related Professional Experience.
-Manage automation and manual testers.
-Hand-on experience in regression, functional and performance testing.</t>
+    <t>We are looking for the best Back-End Application engineers in the world, who have a passion for developing massively scalable, distributed software systems that…</t>
   </si>
   <si>
     <t>8 + years of experience Mandatory.
@@ -572,65 +515,110 @@
 Understanding about ‘keyword search’, natural language search’ and…</t>
   </si>
   <si>
-    <t>We are looking for the best Back-End Application engineers in the world, who have a passion for developing massively scalable, distributed software systems that…</t>
-  </si>
-  <si>
-    <t>Java developer having 10+ experience in Java and UI Related Technologies.
-Be a hands-on developer and also be able to lead a small team including people.</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHceyEv5btlRl-qYBwRCbgmeh9VrpAJJUj2AEFyVwsVzbFTiu_bfsTdPCbQMkhUKXhZFEj9tiAi4mMxuSATsq-m4sFe_t9bpxmErQP-96t9fhoGeLHSiHTMQKsv9MC_91wjtdaaUstSDhTMtX-dzyuNz1zyMKkLN-te0dQFuhND0CujEkuBYfX8NNoI4junjtB4Ga922YJTxHfHzbTJB32bOlGygzwviF_cS-8R0V-xznXsNKqkBICFdVxaFKwko8gup2aNeb9X0Dg5jDsQK4YuygOjyijz94StS1yrthwmKkkQXmNQU9jWDtJYkF3lMx9ek=&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfK7GchFoJFw9yIgKHaQl0Z1S3xg6mRI1lqeQ4AmfZbNTCQDufRuICxYDGBW9oqW-GYcRpofgz-pFVclmDcutgA5nMcSMe2vEHcIPHtjpWnemlDpPYNZRKpBGFj27DqfVhTWyIfLGYM8zYVq01ufX6gysP85rWhmNhbPm7dDEp9eTnp4K2766s4DukSutIc83W9VSwUjqTWKmoQWcfHfJuhfCTQcHGec3POpaKW91rTsBohSsG9BYy6Up8tbp3fls4b8AWVEYz2veXO5mVrlaq9zFk0Uno2gU4HToULzcjKrhPZjQIpNaPUVbQV8-78ftq52sl9b_vXfseedP0qh2KylCIyq2zm8rEdmwz0fQ507h-TLR9_Qoea0_JWRo9fHmP6NKiIBUZIKZMyWKicB95xMBCVwlo1vaR1m48b9PrcrVw==&amp;p=1&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CNc4hWJXeDZ3ZXnFcr2J1Wj0e9JtA8O3MaJxzvzfN419lYGI_iL7OtM1wDMyM9EJMLM6uLeeRmphEyI68rn_vjL65ppqXMTcm-8FVcV-IumuN21HDg4hIaC2IZur0P--1q1Sn8mbFcSkEL7GA7ozXYe4lXcYUgv4KAGbRFV1k8C2f2Y-h61tjvS3DQicELUo-BNnpz-wZ-HjYex75BysM9lAp0zRPN5OgMI7ud-xitfEVktWhGof9P0S5oBDolsXE1Hzd7Qw5873KcIU_r776SuhswzGdQ2uWUspB_hdDOoKGTJVMSsPlBiNmkjGbomfanUO331-3Ws0aj50ngMWJKNC7QXSXTTxPlQbOxvB2Cu5bAfa_OI2LCwthnOw47E9ggFXQyYRMxL-131qkFvm9PYmm4v3gwwmTr9R4QSfftth9hu9zWTZRXOt05-LoaEF47vjNUAftoO91BO0T4GQTC&amp;p=2&amp;fvj=1&amp;vjs=3</t>
+    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
+Qualifications: Any Degree with Computer Background.</t>
+  </si>
+  <si>
+    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
+  </si>
+  <si>
+    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
+Java (Core and advanced) and J2ee Projects.</t>
+  </si>
+  <si>
+    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
+Knowledge in business model VOIP/IPTV/Data.</t>
+  </si>
+  <si>
+    <t>Applicant should have knowledge in the following technical skills.
+Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
+  </si>
+  <si>
+    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
+  </si>
+  <si>
+    <t>Design solutions to drive safe living and quality of life.
+Be part of a team that designs, develops and integrates highly complex software functions within…</t>
+  </si>
+  <si>
+    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
+  </si>
+  <si>
+    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
+  </si>
+  <si>
+    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
+Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
+  </si>
+  <si>
+    <t>Will be part of the Project Team involved in development of new software or enhancement of existing software.
+The role demands end-to-end responsibility.</t>
+  </si>
+  <si>
+    <t>Java developer having 4+ experience in Java programming.
+Developer having hands on experience on Core Java and J2EE frameWorks .</t>
+  </si>
+  <si>
+    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
+How did we get this far?</t>
+  </si>
+  <si>
+    <t>We are providing Software development Internship with Training to all Pursuing Students.
+BE/BTECH (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
+  </si>
+  <si>
+    <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfL8u8QTuu3iB0Fa_7pV0T85ih5W1UnwkxymMYQnhMAGeBxXUUrOncSb56lYeKsDG-ryDjk6XMUbA4K5FFZSa5odTVJoSwe4k1S1opjs3JIL8eQTG3Sg2XYzLAqqJ71bUklAMXP4oFk5Abs2FCuYGJMCsAGan3jCYTKXIWVqMK0SoiTRM30Wjce6fNkuSc_S7MACQ77Ncx7mEx97lJt8QAWSEFILF7gGU1EdFrLIX0hR13WPzUIdyhBI6yzG20Ijtv2EcNftC_hI_HR-M78her9ldcErAInFrpibkdPDsQdfRsX1PWsbYbgAOe_ncd1FwV3nQKR7nCr3NefMzvdVxqd11CKlLXR6VaiqZxwPSuygJBiA1BntkJaxGZY-wSOv5p4xO9kpRBPbcQAvFWpNPbCATnPgJEH6gIKie4hPgJaaSg==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd074d75Y21uzCkDJFoEOhoucTiCyxeqUcRvqHImABAZ4BF2PiZgAjPSS82w8O5l_iZtqU7RAY884CPstY3Mzp-VfC4BeYp-qmVwf02E7VQMYVAf5sqx1jYOZ5wMIvd8z0hsm_EZwx8YBcEplNH7P8rL6SiuP61-4vW0k1cnqYmi91Vajf-nrStw8AGkXY5t7UBDCZqBBURAb09Gl43VsY5WoYSfqwskGncuDUG5MYZyjizzlHSt9MJPEKYwdAmgvswKHij_GVa8VHxz_M0I02EX_WpBWH08kfgiPg0xgpt2nQzaQBGd7M-vwtKViawsd1vkxeJFZsefFb&amp;p=1&amp;fvj=1&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
   </si>
   <si>
+    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
+  </si>
+  <si>
     <t>https://www.indeed.com/rc/clk?jk=7721a250865666b9&amp;fccid=3c1bd4b28eeecdf9&amp;vjs=3</t>
   </si>
   <si>
+    <t>https://www.indeed.com/company/Varnaaz-Technologies/jobs/Java-Developer-ce5238e175573cc5?fccid=48b0e1c553bfe209&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4a9798510f9f184e&amp;fccid=079b127d8fde03a2&amp;vjs=3</t>
+  </si>
+  <si>
     <t>https://www.indeed.com/rc/clk?jk=ea77245eb661ce00&amp;fccid=07146ca99e348eca&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=17f9f80feec2a48e&amp;fccid=df6948c9b8da6236&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/rc/clk?jk=4a9798510f9f184e&amp;fccid=079b127d8fde03a2&amp;vjs=3</t>
+    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=f139dcc18959cb77&amp;fccid=f0c1e70642253730&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=279c5ce5a28998f5&amp;fccid=58f19afcf811541a&amp;vjs=3</t>
-  </si>
-  <si>
     <t>https://www.indeed.com/rc/clk?jk=ac2600d958a9cf8c&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/rc/clk?jk=b50bc2bdc6e79df1&amp;fccid=50208b5bf45ee3b8&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/company/CGI/jobs/Java-Developer-03ac8d0bbc71b077?fccid=211099cf537c10a2&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY_jIyKm3lIRVv8EtwYiGhf-j_48lx9jAN-wkenRb2WLgANavC-k_MgplQQZBzVDJNEHaWKx44n47HgihpdlQkSJRhhR9kpcKm0v1-wyY-CLepJCXs-M-H4F35-RmztgldoOijGq4ft-PZuPEpWGLs31l8SqFn94ZJlhbp9wvmuC2VGxllPTk_YXV-sgs-DEiiSySWoj2Gme7yKp4egkui3g7OhyNGymctPoDRm8u87OcLgMITl5uaNu7iP50Zvu_pRhYDeHuv9P-YrhbAnStKV42mFObHMCYZ5sGMXQtj6dIlGMmoQ07vwqqI5Gfj5pWKQm6zhlv8c43bEthTwzOt-jvmbVakYl--A==&amp;p=13&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq5_n0WcwkJTAAjNtOsBNnKBNdrjLOkYiSlafaSQABaowT54hTV6wMZj034gds6z93AK5YCMJg9WQRvq49f2o_2ZQ5kBrCm9bbbr-yW_eOulCyTqQY3PY-9cgqBwz9k-AOh00wU2FLsbEoqCGAnQE-VSN9yjDX4IDiOnoFR8rVEq1tgZpWycFI5pnUsCqsjRX7wFlEogXQMFFCmfs8swpK4cEPWlj0PLNzM6Jio0GgjZsNVYbiVLtTw6GK636WQ9gBXclyoU4EXhA0JV60AvywtWTdZdWHsn-AXjahpjxsaUu_PUFPRL5cNIsCKV4KLSom7n7LrQo8p-hA==&amp;p=14&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd0x5Bx4hEi2VGz4bFFFP32tR3NhK-SS4SOHtKs-SEPAGPwt4kTCVTZWsR6crPe8J6xnycmfyBvak6LipCYXyTsDFAKvRKtwY67AjxtPdB8EXKmETwST0nMHdgZ9VdvDuQ4rJuoBybM0qxUV_qWhn1FBk5drrtBdI5nNMzX8J2JtjJC2s5_7ecfC8YCwfqWnlDDutMfMKj59vuIsKr-45kX5z_CYFZCw2Z5p2B8TSYwr5rCqPElsfXjsgb-uHG7hvkLYMb_EUBQsMRYr5pDzkdRFlLzdLGlyBZDuOwKh8gsuqh8KZqk89HK_dkI4HCtDIV5DO9d5MwnVqp&amp;p=15&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfL8u8QTuu3iBym0CdN1qy-ky6kZoxWZpaGO1ISj9kn2ydQay8ERQCuQG-ZkracFphM02F23X6cCp4Yjn5W71X5O_MxSw_Rc_hh9pwB8pZ54zddLOrKGeYk0-O7cNIOwrWOoKMjVolZt2WJ0ooKp04DrgF81kYQuBcLgUccmTcxHdLhQ2RUo-b-rJop92W_3psYXnFTBgR1TqVakx5Sv9i2ApX7_Pf7Nst_dXtnGOw_UBzjAL1p3OG6rupSPWj_B3uEH6DsUgHgRywZalbWqNxQaK35emxOaMsUiyy9gjRuE-SzFeOevtPbyeZSYikxqFqSC4NI3LKurySzJMiSlbak_BbwcjdCrOiWSc9TENrQlCy2ATgF7tH4oO7yRcF1aNlAxzg12MeNFnJgmL9i07mgVb46dloT7T9F2svkJPkpvSw==&amp;p=16&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemWULP-NZHApiZTJZCMs8cbr1Anzw7yGWa9dXD-N9EyuxkaIKkgML_6oyr96PD_Jt3gABmvQQ0zyKGzwnO5ogPBVFcNCEMHPxTJ2cF68GQRwB8oZ08oKQ3lqjv_lYNRtCrYmmDP66Axt5f0nErsBKAFyXjXr3LgmYzo3SJRvMPM3unAXyPU3KP3_lNZXUmCLtsntLjOf7gYjZ-CXb5TAM0SzVBmT9rW14tHUixR5bokqYsAfDSBmjHW6lr0ldTaO4P6IenqcBf3wwWda4_faqpLXMsoXK698Az1KSk70kfhWebxl5OpGVE7mDZSGn1mqdH0HAs0k9WGnxFXTQv3963nIzqYNPXrfjqIFoi6h4OVkyMqV9CgY7cIFLJyTlr7fehIInNNgs13rHiT55Qk3Gj66JWUJm5qPZETfBeEHvXD98j4QJySwam6ta2VKeeE44lbunlEWHlJPQunBMFTfDSQVdVfpH2MXnhspmcpdeIVSlNL1Z7JUEU_kQIFLGcwqJ-xzWnlKMRDcOcMdUpf9txNE=&amp;p=17&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Br0tCqNwZUJ4PlbPuLNfz-NnFRw4YUJhOH1Rb9xuzCyqIKNzPrVJ0a1zCXewmt1MXW5ISsb94svsc_GWKGGOoDjBKNPaYpxLKsfBousHlCARBJj9OoethqKG9xUO22p1vqKMYr4eyIdfrPw1Xp7i8UT6sp0XQ0m8eluDHK7TSKu_-azbhrcRcSeVn6NjkjOSHopl3J3xQyn1qvLzvtaud01BifmjhOAog2ltDkiad9aSO-BpJfiVYEJuGlpJpsFUv6A9ceiGk04ZATVXFQAnRyV8UGt-DtyiW4YM8VUb3AgfduTWc-TCd4sWyxkuJmtnh-yoL6m-7yDu-inN0MVwwpoV73JUQPQo4kmIthNwEXI1j_9jkQXyO4uC5UwzA6pmCkCVHN770KpB-ztFb18FCl7wnYv_7PYhO4H4ryPt2iSaycid0Ews8jwJHAI7yQqFDujS0QQqSjpiOUoxO3oGzW&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemSfXrO_EfUkIONh2N-KeDEoSx3Ic7AvaCPsptAtul6PitmVlzRUq-VrfR-1NuoBeyYyqj55yjpcJeViL6fuHAfCYLixIkroFSmIwZa6HAyJdgxQrT1MG_q-QzWCZxeW0KP_7dNp27tHAfY5lBfkDWe1VLsHwxB0OXCR7h0XwyNLJjUPdPII-nQA3OQL5cQzIuiwodnuTMf1m516xJ5TnmmwOh7HGwdA67r2m0gjgoe3aW7SshYLinKz6qFwebjW-HbF6lHVOx6j8RL8CtuD0BicXk7uOFuCFo-aGNeZURRvLoIiTn88VhwTJ7dgtACAKygiKdLleD_HidNH7HWnlCyHBasUGelDR_Q5NVZZNy8hn4nLkzR9OjLCq_tDk3HdV4xxvu9fRReg4XPeQTI3VYT9nlz6yuFq_3bwNj4o2XTvuuMifQ8PucXa3ACBCf_Hr_BQ3t7kPo7CEs-GXHI5RQLbGfveGfOqnje2ZakTZXW5AArYDkdbGR7SHuP0uu-IF1FGlFq2HZVqQ7EwUsy4hcV4=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY0sR5VFMFtXR4WMcr4suWhm9bZY1RSQPvgHUVdbuvAUM2TCYxNBBRLx3DWnRDz09pqDaJNdzIpDrpJJcp-SS6V2SSmD4rWc4aR2g5HdrthJWtacs02-z-xea9uu-kizB-eIzWSC5lPYyXYxcXPX0j5U_cwZNzi2bp21HpwJV1CkrTLYQ6DVWiTQyTtTUt4VzSXiHO3I0Qx66Nvwq1DbhzL70BrzJNaZK53qofzeaNpQu0aT-oB4gAr2h7Foj11xjNV1UhLIFo8Tg8iUc5Fs7KzSLPZtrCgOkgdNSMxCDH2wNJNLYus5bnj-VSvHIDmYVI_-_npjP1couVEec24250E19TsMDjx8FsA==&amp;p=14&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrPrIVfJlMw6SlNRPhN8taas4emjSVR3pNxb-eErrZJKY8EBEkmpexQUv4pElrAmtFJodksTCTqIUMjMXzyRF_Yl0GAS7wmoM25adbOYLCyFZAzRKOxF3JU4YJaktY_aQ3ojcKoxvzWcC3plJqJkAoaar-VOKjKVSHRb8g0YqTOUenybDbTuF-xw1qSFjHcwiUZsB2vXNXVBdfC5AxDmacOXiJ812fHLNc_Y2FYHHZqDsOjlxTmdqFM9jVQGwyHQXV3p6xJqkXgzoSb0xVEdjKFPdyufydI4sgu1TY8F7JweFQtd6lmNYuTGFwAxXxYbFdcMPIh57iBh1aKEkxcXRnKrafm9TcvpixhVjdr06zQvvK-Ma3lxLOrMg3uHJ41izD3AXEOBhbwqxINkmYMkj1cNnFiSEb_NbZqgKxfhiYPAoM5Qw5SrNgtfj0eu1pO21x0H0yByqgJH0g=&amp;p=15&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcc11-jPT5MOaXrBSu79wyg3Kon5tEtTj3seJwvBKLojYwP-0P2ogmDx4VN0cmSnzhn3PcOXPhr32fI3wAnZc8yn-fHuKs2eojW-hoKpqSUHtV8Eqe7AgqpeU7hb_VRlpbpJ0uSN69-MmOe_mCdky-kh2O2VfeTwgfibxbYVRcDVE5UoZPwQsBwimK3kM5osERzJVb7tZhI17AQ8bYefNIWA8nQ2Tf_N59tGzzIlzd6yzLDktkb6b-n6WPtURDtKMF1cOp0piv864e_x2168uoCV7Fd5wjGswlT7Mkgu_lig4vCUp8LN03oKnFIxU2A8M8U=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2570,7 @@
         <v>44</v>
       </c>
       <c r="M36" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>111</v>
@@ -2626,7 +2614,7 @@
         <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>111</v>
@@ -2670,7 +2658,7 @@
         <v>44</v>
       </c>
       <c r="M38" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>112</v>
@@ -2714,7 +2702,7 @@
         <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>112</v>
@@ -2857,7 +2845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2912,40 +2900,40 @@
         <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>148</v>
       </c>
-      <c r="I2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" t="s">
-        <v>149</v>
-      </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2956,40 +2944,40 @@
         <v>115</v>
       </c>
       <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
       <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
         <v>131</v>
       </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" t="s">
-        <v>133</v>
-      </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3000,40 +2988,40 @@
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3044,40 +3032,40 @@
         <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3088,40 +3076,40 @@
         <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3132,40 +3120,40 @@
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3176,40 +3164,40 @@
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3220,40 +3208,40 @@
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3261,43 +3249,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3305,43 +3293,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3349,43 +3337,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3396,40 +3384,40 @@
         <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3440,40 +3428,40 @@
         <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3484,40 +3472,40 @@
         <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3528,40 +3516,40 @@
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3572,40 +3560,40 @@
         <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3613,87 +3601,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" t="s">
-        <v>131</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +3659,6 @@
     <hyperlink ref="N16" r:id="rId15"/>
     <hyperlink ref="N17" r:id="rId16"/>
     <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jobstest.xlsx
+++ b/jobstest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="180">
   <si>
     <t>Job Title</t>
   </si>
@@ -405,100 +405,94 @@
     <t>https://www.shine.com/jobs/javaj2ee-developers/tricon-infotech-pvt-ltd/10432939/</t>
   </si>
   <si>
-    <t>MTS 1, Software Engineer</t>
+    <t>Mgr, Engineering</t>
+  </si>
+  <si>
+    <t>Software Engineer - Java</t>
+  </si>
+  <si>
+    <t>Java Developers - Freshers</t>
+  </si>
+  <si>
+    <t>SE Specialist - Java</t>
+  </si>
+  <si>
+    <t>Java Internship Program - [Freshers]</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Java Freshers</t>
+  </si>
+  <si>
+    <t>Java Intern</t>
+  </si>
+  <si>
+    <t>Software Engr II</t>
+  </si>
+  <si>
+    <t>Java / J2EE - Architecture</t>
+  </si>
+  <si>
+    <t>Java Developers/Leads</t>
+  </si>
+  <si>
+    <t>Java Software Consultant for a Multi-national</t>
   </si>
   <si>
     <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
   </si>
   <si>
-    <t>Java Developers - Freshers</t>
-  </si>
-  <si>
-    <t>SE Specialist - Java</t>
-  </si>
-  <si>
-    <t>Java Internship Program - [Freshers]</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>Java Freshers</t>
-  </si>
-  <si>
-    <t>Java Intern</t>
-  </si>
-  <si>
-    <t>Software Engr II</t>
-  </si>
-  <si>
-    <t>Java / J2EE - Architecture</t>
-  </si>
-  <si>
-    <t>Java Developers/Leads</t>
-  </si>
-  <si>
-    <t>Java Software Consultant for a Multi-national</t>
-  </si>
-  <si>
-    <t>Tech Lead - Java Development</t>
-  </si>
-  <si>
-    <t>Software Engineer, Principal</t>
-  </si>
-  <si>
-    <t>Python/ Machine Learning Internships - B.E/B.Tech ( Pursuing...</t>
+    <t>Testing Lead - PLM</t>
   </si>
   <si>
     <t>not provided</t>
   </si>
   <si>
+    <t>Epsilon India</t>
+  </si>
+  <si>
     <t>PayPal</t>
   </si>
   <si>
+    <t>BigSpire Software</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Fennec Technologies</t>
+  </si>
+  <si>
+    <t>Varnaaz Technologies</t>
+  </si>
+  <si>
+    <t>Chegus Infotech</t>
+  </si>
+  <si>
+    <t>InstaSafe</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Zycus</t>
+  </si>
+  <si>
+    <t>Keyfalcon Solutions</t>
+  </si>
+  <si>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
+    <t>MWi India Pvt Ltd</t>
+  </si>
+  <si>
     <t>Flixmind infotech PVT LTD</t>
   </si>
   <si>
-    <t>BigSpire Software</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>Varnaaz Technologies</t>
-  </si>
-  <si>
-    <t>Chegus Infotech</t>
-  </si>
-  <si>
-    <t>InstaSafe</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Zycus</t>
-  </si>
-  <si>
-    <t>Keyfalcon Solutions</t>
-  </si>
-  <si>
-    <t>Careator Technologies</t>
-  </si>
-  <si>
-    <t>MWi India Pvt Ltd</t>
-  </si>
-  <si>
-    <t>State Street</t>
-  </si>
-  <si>
-    <t>Epsilon India</t>
-  </si>
-  <si>
-    <t>TechCiti Technologies Private Limited</t>
+    <t>Infosys Limited</t>
   </si>
   <si>
     <t>Applied Materials Inc.</t>
@@ -507,7 +501,52 @@
     <t>Bengaluru, Karnataka</t>
   </si>
   <si>
-    <t>We are looking for the best Back-End Application engineers in the world, who have a passion for developing massively scalable, distributed software systems that…</t>
+    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
+How did we get this far?</t>
+  </si>
+  <si>
+    <t>We're a purpose-driven company whose beliefs are the foundation for how we conduct business every day.
+We hold ourselves to our One Team Behaviors which demand…</t>
+  </si>
+  <si>
+    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
+Qualifications: Any Degree with Computer Background.</t>
+  </si>
+  <si>
+    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
+  </si>
+  <si>
+    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
+Java (Core and advanced) and J2ee Projects.</t>
+  </si>
+  <si>
+    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
+Knowledge in business model VOIP/IPTV/Data.</t>
+  </si>
+  <si>
+    <t>Applicant should have knowledge in the following technical skills.
+Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
+  </si>
+  <si>
+    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
+  </si>
+  <si>
+    <t>Design solutions to drive safe living and quality of life.
+Be part of a team that designs, develops and integrates highly complex software functions within…</t>
+  </si>
+  <si>
+    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
+  </si>
+  <si>
+    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
+  </si>
+  <si>
+    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
+Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
+  </si>
+  <si>
+    <t>Will be part of the Project Team involved in development of new software or enhancement of existing software.
+The role demands end-to-end responsibility.</t>
   </si>
   <si>
     <t>8 + years of experience Mandatory.
@@ -515,65 +554,23 @@
 Understanding about ‘keyword search’, natural language search’ and…</t>
   </si>
   <si>
-    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
-Qualifications: Any Degree with Computer Background.</t>
-  </si>
-  <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
-Java (Core and advanced) and J2ee Projects.</t>
-  </si>
-  <si>
-    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
-Knowledge in business model VOIP/IPTV/Data.</t>
-  </si>
-  <si>
-    <t>Applicant should have knowledge in the following technical skills.
-Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
-  </si>
-  <si>
-    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
-  </si>
-  <si>
-    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
-Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
-  </si>
-  <si>
-    <t>Will be part of the Project Team involved in development of new software or enhancement of existing software.
-The role demands end-to-end responsibility.</t>
-  </si>
-  <si>
-    <t>Java developer having 4+ experience in Java programming.
-Developer having hands on experience on Core Java and J2EE frameWorks .</t>
-  </si>
-  <si>
-    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
-How did we get this far?</t>
-  </si>
-  <si>
-    <t>We are providing Software development Internship with Training to all Pursuing Students.
-BE/BTECH (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
+    <t>Internal Title: Senior Systems Engineer.
+Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
+Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
+  </si>
+  <si>
+    <t>10+ Years of related Professional Experience.
+Manage automation and manual testers.
+Hand-on experience in regression, functional and performance testing.</t>
   </si>
   <si>
     <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfL8u8QTuu3iB0Fa_7pV0T85ih5W1UnwkxymMYQnhMAGeBxXUUrOncSb56lYeKsDG-ryDjk6XMUbA4K5FFZSa5odTVJoSwe4k1S1opjs3JIL8eQTG3Sg2XYzLAqqJ71bUklAMXP4oFk5Abs2FCuYGJMCsAGan3jCYTKXIWVqMK0SoiTRM30Wjce6fNkuSc_S7MACQ77Ncx7mEx97lJt8QAWSEFILF7gGU1EdFrLIX0hR13WPzUIdyhBI6yzG20Ijtv2EcNftC_hI_HR-M78her9ldcErAInFrpibkdPDsQdfRsX1PWsbYbgAOe_ncd1FwV3nQKR7nCr3NefMzvdVxqd11CKlLXR6VaiqZxwPSuygJBiA1BntkJaxGZY-wSOv5p4xO9kpRBPbcQAvFWpNPbCATnPgJEH6gIKie4hPgJaaSg==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd074d75Y21uzCkDJFoEOhoucTiCyxeqUcRvqHImABAZ4BF2PiZgAjPSS82w8O5l_iZtqU7RAY884CPstY3Mzp-VfC4BeYp-qmVwf02E7VQMYVAf5sqx1jYOZ5wMIvd8z0hsm_EZwx8YBcEplNH7P8rL6SiuP61-4vW0k1cnqYmi91Vajf-nrStw8AGkXY5t7UBDCZqBBURAb09Gl43VsY5WoYSfqwskGncuDUG5MYZyjizzlHSt9MJPEKYwdAmgvswKHij_GVa8VHxz_M0I02EX_WpBWH08kfgiPg0xgpt2nQzaQBGd7M-vwtKViawsd1vkxeJFZsefFb&amp;p=1&amp;fvj=1&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY_jIyKm3lIRVv8EtwYiGhf-j_48lx9jAN-wkenRb2WLgANavC-k_MgplQQZBzVDJNEHaWKx44n47HgihpdlQkSLlnKxXYkUS2dA2a_TVzIWRmdCoFG9TmYuuD6d9reSbufeEtkvCTk-7h_D3H5W00IaFbSADyC_hg5rQWtzy2-xph_1BnsOUjIvIij9obOpvNzkIaDkIB3on2AakjYXs27YXiX6IBr6oG14pm7PNjJwqUS1BwT1cWmIiEUa71cak1ML-l-YeAK17wbtOVJHZHRq2FKbNSXC0ttKWMTJeCgJ1XE03Sie1bn6bzNunzoecpDb7mBUFdmBj_jGxwr8OAHpiTGCkhPtz1Q==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfK7GchFoJFw9yIgKHaQl0Z1S3xg6mRI1lqeQ4AmfZbNTCQDufRuICxYDGBW9oqW-GYcRpofgz-pFVclmDcutgA5nMcSMe2vEHeCzkVdLkdmbvcsPhf9aDAW9nTJ8UNTkgT3EIl91ZWdu1wkbP-hqhdxHjjIBi8qVahVyeQsuIoXtzO9YbyvG779N5CXgtS3lisiwyxFv_z63rj3KMTXXpemO_uckSDueUCTyYYs2v6nCQY4_PhUGAGZdoDlfeEyJD4e7QNtfFDZ4UDWB64MF1q8Z3BPSOvovVlId8DEA0PkXaoCHMxmEk1kkavS2hIDJKkZQmHO2esuieag4FurepdQGVLPD0C5_Ky3MN7QKVaIMLBnLUaq7tGAlRhQZ34YEo5Gpxp_KyrU69cvjd07fTZIAuldyRUAQzbH2mfOCDM3KA==&amp;p=1&amp;fvj=0&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
@@ -606,19 +603,19 @@
     <t>https://www.indeed.com/rc/clk?jk=ac2600d958a9cf8c&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Br0tCqNwZUJ4PlbPuLNfz-NnFRw4YUJhOH1Rb9xuzCyqIKNzPrVJ0a1zCXewmt1MXW5ISsb94svsc_GWKGGOoDjBKNPaYpxLKsfBousHlCARBJj9OoethqKG9xUO22p1vqKMYr4eyIdfrPw1Xp7i8UT6sp0XQ0m8eluDHK7TSKu_-azbhrcRcSeVn6NjkjOSHopl3J3xQyn1qvLzvtaud01BifmjhOAog2ltDkiad9aSO-BpJfiVYEJuGlpJpsFUv6A9ceiGk04ZATVXFQAnRyV8UGt-DtyiW4YM8VUb3AgfduTWc-TCd4sWyxkuJmtnh-yoL6m-7yDu-inN0MVwwpoV73JUQPQo4kmIthNwEXI1j_9jkQXyO4uC5UwzA6pmCkCVHN770KpB-ztFb18FCl7wnYv_7PYhO4H4ryPt2iSaycid0Ews8jwJHAI7yQqFDujS0QQqSjpiOUoxO3oGzW&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DufbCI2HIYwgBtoz6kWO8JhBjFXIWlM4Ym8nprWE4ozyO6GilzqEnqA6v-WZbgr7lF5ZQ0BtGemSfXrO_EfUkIONh2N-KeDEoSx3Ic7AvaCPsptAtul6PitmVlzRUq-VrfR-1NuoBeyYyqj55yjpcJeViL6fuHAfCYLixIkroFSmIwZa6HAyJdgxQrT1MG_q-QzWCZxeW0KP_7dNp27tHAfY5lBfkDWe1VLsHwxB0OXCR7h0XwyNLJjUPdPII-nQA3OQL5cQzIuiwodnuTMf1m516xJ5TnmmwOh7HGwdA67r2m0gjgoe3aW7SshYLinKz6qFwebjW-HbF6lHVOx6j8RL8CtuD0BicXk7uOFuCFo-aGNeZURRvLoIiTn88VhwTJ7dgtACAKygiKdLleD_HidNH7HWnlCyHBasUGelDR_Q5NVZZNy8hn4nLkzR9OjLCq_tDk3HdV4xxvu9fRReg4XPeQTI3VYT9nlz6yuFq_3bwNj4o2XTvuuMifQ8PucXa3ACBCf_Hr_BQ3t7kPo7CEs-GXHI5RQLbGfveGfOqnje2ZakTZXW5AArYDkdbGR7SHuP0uu-IF1FGlFq2HZVqQ7EwUsy4hcV4=&amp;p=13&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY0sR5VFMFtXR4WMcr4suWhm9bZY1RSQPvgHUVdbuvAUM2TCYxNBBRLx3DWnRDz09pqDaJNdzIpDrpJJcp-SS6V2SSmD4rWc4aR2g5HdrthJWtacs02-z-xea9uu-kizB-eIzWSC5lPYyXYxcXPX0j5U_cwZNzi2bp21HpwJV1CkrTLYQ6DVWiTQyTtTUt4VzSXiHO3I0Qx66Nvwq1DbhzL70BrzJNaZK53qofzeaNpQu0aT-oB4gAr2h7Foj11xjNV1UhLIFo8Tg8iUc5Fs7KzSLPZtrCgOkgdNSMxCDH2wNJNLYus5bnj-VSvHIDmYVI_-_npjP1couVEec24250E19TsMDjx8FsA==&amp;p=14&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrPrIVfJlMw6SlNRPhN8taas4emjSVR3pNxb-eErrZJKY8EBEkmpexQUv4pElrAmtFJodksTCTqIUMjMXzyRF_Yl0GAS7wmoM25adbOYLCyFZAzRKOxF3JU4YJaktY_aQ3ojcKoxvzWcC3plJqJkAoaar-VOKjKVSHRb8g0YqTOUenybDbTuF-xw1qSFjHcwiUZsB2vXNXVBdfC5AxDmacOXiJ812fHLNc_Y2FYHHZqDsOjlxTmdqFM9jVQGwyHQXV3p6xJqkXgzoSb0xVEdjKFPdyufydI4sgu1TY8F7JweFQtd6lmNYuTGFwAxXxYbFdcMPIh57iBh1aKEkxcXRnKrafm9TcvpixhVjdr06zQvvK-Ma3lxLOrMg3uHJ41izD3AXEOBhbwqxINkmYMkj1cNnFiSEb_NbZqgKxfhiYPAoM5Qw5SrNgtfj0eu1pO21x0H0yByqgJH0g=&amp;p=15&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcc11-jPT5MOaXrBSu79wyg3Kon5tEtTj3seJwvBKLojYwP-0P2ogmDx4VN0cmSnzhn3PcOXPhr32fI3wAnZc8yn-fHuKs2eojW-hoKpqSUHtV8Eqe7AgqpeU7hb_VRlpbpJ0uSN69-MmOe_mCdky-kh2O2VfeTwgfibxbYVRcDVE5UoZPwQsBwimK3kM5osERzJVb7tZhI17AQ8bYefNIWA8nQ2Tf_N59tGzzIlzd6yzLDktkb6b-n6WPtURDtKMF1cOp0piv864e_x2168uoCV7Fd5wjGswlT7Mkgu_lig4vCUp8LN03oKnFIxU2A8M8U=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Br0tCqNwZUJ4PlbPuLNfz-NnFRw4YUJhOH1Rb9xuzCyqIKNzPrVJ0a1zCXewmt1MXW5ISsb94svsc_GWKGGOoDjBKNPaYpxLKsfBousHlCARBJj9OoethqKG9xUO22p1vqKMYr4eyIdfrPw1Xp7i8UT6sp0XQ0m8eluDHK7TSKu7tX0_Rkl1BJc85coIcMR3Z1ZLzbP_Q99kJyqarjIJmHdIyWDEHTD_ayzZ-hvsOQvTLDxIxgAkuzbJDn351k-ndIKZ0ehuEmypT3Qe9waecIwF8xQgSZTw-KC3zWwI78ErZ7XpnW6CEhhYhZoLZxh49A7lLMMm5ZP84pTB4Eco85u5jrvhzYydVjAvBItN-WRfiFA2ydUKVOW4m1JOYYDWNd_tGiHm6CIzE8CNl3fpzkt-41VvzqdjAVPzpWHuQsKN7E9c3W5b3X4rapDe-vStfAvcugtoqSngsA8IcwPZmL&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd074d75Y21uzCLY6k2_3_dTKKWonCv3I16R-QNJ2pU2auCQ2eMcVRhBTF5c9KCkqalEi64Epw8M6rm6KRShlCSAnBb7zy2KEN8vxgiLLIukabt08Smi2Ip5ym0hK3Qva5ZpiCnRV9lg43dOf2de_HTuLfyU9xrZ4zypP9zEsWg8XVcz8M9ZSs9juiLU-LQVk1I5C9pCm0mSykrORhyeJ_6Xin7Ja_WQp2Dvr7MutspYePtuSTDQlopwESwlP-ATJ7MjhpWie7Rfq7-xqcggoKHiyHXoo1vQC1E8fzTao0y7Jl87YtzcmWf8GNgZTnFDsDU0Y4673CMhDZ&amp;p=13&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUDEmkxVzwqwL2sqGE-SkWksyemrrA1nf-lBmVe1Jrq9wniqu3PkGMu6Q8xJ2JufUF-7mj3wAc-qzNQOxbB79Ny60r31SuBdMPDarNt5IfdbyzF74_q-nV2H_LPYqASMeQLbeCTJ0IyUeC9kepQilO1XBRunlbtrPwOPXJR00kt58fBpg568MnpsgzoQzxs2CLLl7GUycxmRClVRmPQ9AG-unvzPenpoDxfHZEx_JIpU2WMGe18za3Sh3Crj7KWzzTePR1DUct3KNwz9U840rpt16ON4eWVyr5FzSsyyPwCnXXdju5YCf0yvEL_lPpYCt5h73W82OU_pDC9wtZ49qy2lHioDWflvRmWoRA_oQDd7aOW1YPKYV6_9M19LvyVFimjGF-UR8bEb8YLreYLDLfr7io6gvmD_bPwlF8IxG6oYyYk12zLIvGAl-0t8RYmgYtzxv1onqsiKNoAPvOzl-aabxUFWSY2Y8E&amp;p=14&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq6Ox_d46Sid3F8aUoXtD9DtgguHVPQ8MRkW9Y-sUpfUOdbVC4zEkrFgreg2XZ4W5hfs3k57kZHcsVAYs5b3kdhuhYA5orzvXOkwAVKiswvpCM65xyJpxGgAdRzKx9Lk0j007euhSyL1stLNQAfAjfJoQAK6QEQLdwq5PDh2pqA80Vo-ZFW3NrfzrE0pR1-Q4Y2T7D9X-68MXtyiGo2bHMIgCc_Hkl3NLchetyJJs6PuMs2GZPBHMtjVAFcpmMCp8B2xfzmC4FXAi-8NwoGPn3SeoD1kHP-Ww7Jjc9Cw_zo0kmp9U-VEGxYmTTneXcpFnTJLM4Ssp4McnA==&amp;p=15&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcc9p-ZxupPUH7KtN-W0aMsStBriIPjWgFcalWqcYJk_zew2ZKqOlo0Q43gIvfwFE8JdbpHfIxmTKDrtmoPDUu1hMVa9m1t2AXXaoWKT2ZVqvchmXO6lrYDFNSIvob4UVdZeRaNfHSABcIfR4rdnYXwL8X9-ybdnLaHtpG1jG2y6YhMULQGYenLsxdUirSuQHF9T8DS25gnDYHb5_A4PbhIawhFrMkYXgzePKlHNrFlXBSWgLOapFgR_BbD-I9t8Ig8_MxUqy1h5z-pj1ea38Cg1jhOO6Jey_lQ7j_bjeUyf00BCCrmhQ-7_RRoAlT8H9Ns=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -2900,11 +2897,11 @@
         <v>114</v>
       </c>
       <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
@@ -2915,16 +2912,16 @@
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
@@ -2933,7 +2930,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2944,10 +2941,10 @@
         <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -2959,17 +2956,17 @@
         <v>44</v>
       </c>
       <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
         <v>147</v>
       </c>
-      <c r="I3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>149</v>
-      </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>44</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2988,10 +2985,10 @@
         <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -3003,16 +3000,16 @@
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
         <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
@@ -3021,7 +3018,7 @@
         <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3032,10 +3029,10 @@
         <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -3047,16 +3044,16 @@
         <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
         <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
@@ -3065,7 +3062,7 @@
         <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3076,10 +3073,10 @@
         <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -3091,16 +3088,16 @@
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
@@ -3109,7 +3106,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3120,10 +3117,10 @@
         <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -3135,16 +3132,16 @@
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
         <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
@@ -3153,7 +3150,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3164,10 +3161,10 @@
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -3179,16 +3176,16 @@
         <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
@@ -3197,7 +3194,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3208,10 +3205,10 @@
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -3223,16 +3220,16 @@
         <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
@@ -3241,7 +3238,7 @@
         <v>44</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3252,10 +3249,10 @@
         <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -3267,16 +3264,16 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
         <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
         <v>44</v>
@@ -3285,7 +3282,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3296,10 +3293,10 @@
         <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -3311,16 +3308,16 @@
         <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
@@ -3329,7 +3326,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3340,10 +3337,10 @@
         <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -3355,16 +3352,16 @@
         <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
@@ -3373,7 +3370,7 @@
         <v>44</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3384,10 +3381,10 @@
         <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
@@ -3399,16 +3396,16 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
         <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
@@ -3417,7 +3414,7 @@
         <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3428,10 +3425,10 @@
         <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -3443,16 +3440,16 @@
         <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
@@ -3461,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3472,10 +3469,10 @@
         <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -3487,16 +3484,16 @@
         <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
@@ -3505,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3513,13 +3510,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -3531,16 +3528,16 @@
         <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
@@ -3549,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3557,34 +3554,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
       <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
         <v>145</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>147</v>
-      </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
@@ -3593,7 +3590,7 @@
         <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3604,10 +3601,10 @@
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -3619,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
@@ -3637,7 +3634,7 @@
         <v>44</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/jobstest.xlsx
+++ b/jobstest.xlsx
@@ -405,10 +405,10 @@
     <t>https://www.shine.com/jobs/javaj2ee-developers/tricon-infotech-pvt-ltd/10432939/</t>
   </si>
   <si>
-    <t>Mgr, Engineering</t>
-  </si>
-  <si>
-    <t>Software Engineer - Java</t>
+    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
+  </si>
+  <si>
+    <t>Python/ Machine Learning Internships - B.E/B.Tech ( Pursuing...</t>
   </si>
   <si>
     <t>Java Developers - Freshers</t>
@@ -438,115 +438,67 @@
     <t>Java Developers/Leads</t>
   </si>
   <si>
+    <t>Software Engineer, Principal</t>
+  </si>
+  <si>
+    <t>Java/Web development Internship for B.E/B.Tech (Pursuing stu...</t>
+  </si>
+  <si>
     <t>Java Software Consultant for a Multi-national</t>
   </si>
   <si>
-    <t>Java with Elastic Search developer/ElK/Solr/8+ years/Urgent...</t>
-  </si>
-  <si>
-    <t>Testing Lead - PLM</t>
-  </si>
-  <si>
     <t>not provided</t>
   </si>
   <si>
+    <t>Flixmind infotech PVT LTD</t>
+  </si>
+  <si>
+    <t>TechCiti Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>BigSpire Software</t>
+  </si>
+  <si>
+    <t>Société Générale</t>
+  </si>
+  <si>
+    <t>Fennec Technologies</t>
+  </si>
+  <si>
+    <t>Varnaaz Technologies</t>
+  </si>
+  <si>
+    <t>Chegus Infotech</t>
+  </si>
+  <si>
+    <t>InstaSafe</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Zycus</t>
+  </si>
+  <si>
+    <t>Keyfalcon Solutions</t>
+  </si>
+  <si>
+    <t>Careator Technologies</t>
+  </si>
+  <si>
     <t>Epsilon India</t>
   </si>
   <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>BigSpire Software</t>
-  </si>
-  <si>
-    <t>Société Générale</t>
-  </si>
-  <si>
-    <t>Fennec Technologies</t>
-  </si>
-  <si>
-    <t>Varnaaz Technologies</t>
-  </si>
-  <si>
-    <t>Chegus Infotech</t>
-  </si>
-  <si>
-    <t>InstaSafe</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Zycus</t>
-  </si>
-  <si>
-    <t>Keyfalcon Solutions</t>
-  </si>
-  <si>
-    <t>Careator Technologies</t>
+    <t>Infosys Limited</t>
   </si>
   <si>
     <t>MWi India Pvt Ltd</t>
   </si>
   <si>
-    <t>Flixmind infotech PVT LTD</t>
-  </si>
-  <si>
-    <t>Infosys Limited</t>
-  </si>
-  <si>
     <t>Applied Materials Inc.</t>
   </si>
   <si>
     <t>Bengaluru, Karnataka</t>
-  </si>
-  <si>
-    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
-How did we get this far?</t>
-  </si>
-  <si>
-    <t>We're a purpose-driven company whose beliefs are the foundation for how we conduct business every day.
-We hold ourselves to our One Team Behaviors which demand…</t>
-  </si>
-  <si>
-    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
-Qualifications: Any Degree with Computer Background.</t>
-  </si>
-  <si>
-    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
-  </si>
-  <si>
-    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
-Java (Core and advanced) and J2ee Projects.</t>
-  </si>
-  <si>
-    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
-Knowledge in business model VOIP/IPTV/Data.</t>
-  </si>
-  <si>
-    <t>Applicant should have knowledge in the following technical skills.
-Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
-  </si>
-  <si>
-    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
-  </si>
-  <si>
-    <t>Design solutions to drive safe living and quality of life.
-Be part of a team that designs, develops and integrates highly complex software functions within…</t>
-  </si>
-  <si>
-    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
-  </si>
-  <si>
-    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
-  </si>
-  <si>
-    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
-Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
-  </si>
-  <si>
-    <t>Will be part of the Project Team involved in development of new software or enhancement of existing software.
-The role demands end-to-end responsibility.</t>
   </si>
   <si>
     <t>8 + years of experience Mandatory.
@@ -554,23 +506,70 @@
 Understanding about ‘keyword search’, natural language search’ and…</t>
   </si>
   <si>
+    <t>We are providing Software development Internship with Training to all Pursuing Students.
+BE/BTECH (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
+  </si>
+  <si>
+    <t>Skill Sets: Should have a good communication skills, knowledge in java programming.
+Qualifications: Any Degree with Computer Background.</t>
+  </si>
+  <si>
+    <t>SG GSC possesses in-depth understanding of the business processes and cutting-edge technologies across domains of Societe Generale’s diverse portfolio.</t>
+  </si>
+  <si>
+    <t>Fennec Technologies offers 4-6 months Java Internship program for freshers and last semester students.
+Java (Core and advanced) and J2ee Projects.</t>
+  </si>
+  <si>
+    <t>Produce highly usable systems that are high performance, easy to maintain and engineered to meet business needs.
+Knowledge in business model VOIP/IPTV/Data.</t>
+  </si>
+  <si>
+    <t>Applicant should have knowledge in the following technical skills.
+Strong OO programming knowledge, ability to incorporate in practice various software design &amp;…</t>
+  </si>
+  <si>
+    <t>At InstaSafe, we are revolutionising the information security industry by developing a state-of-the-art Security-as-a-Service platform making it simple and easy…</t>
+  </si>
+  <si>
+    <t>Design solutions to drive safe living and quality of life.
+Be part of a team that designs, develops and integrates highly complex software functions within…</t>
+  </si>
+  <si>
+    <t>Headquartered in Princeton, U.S. in 1998, Zycus has grown every day to be established as an organization which now is a leading global provider of complete…</t>
+  </si>
+  <si>
+    <t>7)Knows the business rules and concepts, software specifications and designs provided by the technical lead and apply them in completing the assigned task.</t>
+  </si>
+  <si>
+    <t>Mandatory Skills: java 1.8 or 8 version ,API ( REST or Web).
+Relevant Experience: java 1.8 or 8 version at least 2 to 3 years / API ( REST or Web) 2 to 4 years’…</t>
+  </si>
+  <si>
+    <t>To know more about us, please visithttps://india.epsilon.com and follow us onFacebook,Twitter,LinkedIn, andInstagram.
+How did we get this far?</t>
+  </si>
+  <si>
     <t>Internal Title: Senior Systems Engineer.
 Skill(s): * Java, J2EE, Spring, Hibernate, Microservices.
 Location(s): Bangalore, *Bhubaneshwar, Chennai, Gurgaon,…</t>
   </si>
   <si>
-    <t>10+ Years of related Professional Experience.
-Manage automation and manual testers.
-Hand-on experience in regression, functional and performance testing.</t>
+    <t>We are providing Software development Internship with Training to all Pursuing Students.
+BE/BTECH* (CSE/ISE/ECE/IT/EEE) Pursuing Students (any batch).</t>
+  </si>
+  <si>
+    <t>Will be part of the Project Team involved in development of new software or enhancement of existing software.
+The role demands end-to-end responsibility.</t>
   </si>
   <si>
     <t>Execute the design, analysis, or evaluation of assigned projects using sound engineering principles and adhering to business standards, practices, procedures,…</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY_jIyKm3lIRVv8EtwYiGhf-j_48lx9jAN-wkenRb2WLgANavC-k_MgplQQZBzVDJNEHaWKx44n47HgihpdlQkSLlnKxXYkUS2dA2a_TVzIWRmdCoFG9TmYuuD6d9reSbufeEtkvCTk-7h_D3H5W00IaFbSADyC_hg5rQWtzy2-xph_1BnsOUjIvIij9obOpvNzkIaDkIB3on2AakjYXs27YXiX6IBr6oG14pm7PNjJwqUS1BwT1cWmIiEUa71cak1ML-l-YeAK17wbtOVJHZHRq2FKbNSXC0ttKWMTJeCgJ1XE03Sie1bn6bzNunzoecpDb7mBUFdmBj_jGxwr8OAHpiTGCkhPtz1Q==&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AZUZ1SiG2e4Ouwn9d_PzaL9ycxqvROzmSyfHj86mtRPX8kMGne1k1C5qqo3mHSVfK7GchFoJFw9yIgKHaQl0Z1S3xg6mRI1lqeQ4AmfZbNTCQDufRuICxYDGBW9oqW-GYcRpofgz-pFVclmDcutgA5nMcSMe2vEHeCzkVdLkdmbvcsPhf9aDAW9nTJ8UNTkgT3EIl91ZWdu1wkbP-hqhdxHjjIBi8qVahVyeQsuIoXtzO9YbyvG779N5CXgtS3lisiwyxFv_z63rj3KMTXXpemO_uckSDueUCTyYYs2v6nCQY4_PhUGAGZdoDlfeEyJD4e7QNtfFDZ4UDWB64MF1q8Z3BPSOvovVlId8DEA0PkXaoCHMxmEk1kkavS2hIDJKkZQmHO2esuieag4FurepdQGVLPD0C5_Ky3MN7QKVaIMLBnLUaq7tGAlRhQZ34YEo5Gpxp_KyrU69cvjd07fTZIAuldyRUAQzbH2mfOCDM3KA==&amp;p=1&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd074d75Y21uzCJX8y04FPGrM42RHU8XSpCvlKl_Kv5DnY37VCS-k9ZgY3eZrUc6RVxZLngO9XhAqp-8RmUbaZpZNscdXFVCk3N9zHAiOXI8DsaMSbRgH8JgiNkrofMcWh32ELu0LV3Cb2KFO7ne_ydHXwylcpIuoi_jDIgwLNq42gquVz--wlV36n5HmTjZqItTk729z7OF-aLnRqY--U0LYZSey2isb-Ea2jRZaMAutP-VmNFoUdfKaYZ-hif8_a4Gj9XDkL7xmErsqMsmNROqokoGIsWwrE7YGPSgLUhsJ-nX8PJG-pasRnBJ157L1h3FRzrGygkwwz&amp;p=0&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrPrIVfJlMw6SlNRPhN8taas4emjSVR3pNxb-eErrZJKY8EBEkmpexQUv4pElrAmtFJodksTCTqIUMjMXzyRF_Yl0GAS7wmoM25adbOYLCyFZAzRKOxF3JU4YJaktY_aQ3onNDzrVirZyt5Mml62NwNirAitn1a_OMBfdQdU4gUJnvPaW684TcGcFNq47Vz0tl6q2fRyzybGCDiQxXLhaMNklNU58EF4G8-fQUeNkQtWsZAfGOkhMRFWAWHc90GL9S2LQ2izn390TaRZAsqxfdo0bFOpPmWXFk9xHIBUj1DulphAh_3uXtL_CtsMYoPSG7dFsJ7M-KBBht1Ul0yLyZrGe64Z7jOtUCSKj6mnA0Wsbg9OFcDeBjPWrGAcU5DHnF-deRRWlH-PpgvkmTdCdkhxgLYt0pHU6ZtKSe_huEDu7PRfSYUFFiAbDf2SlhnDHgXyF2a0x0ZFZY=&amp;p=1&amp;fvj=1&amp;vjs=3</t>
   </si>
   <si>
     <t>https://www.indeed.com/rc/clk?jk=9c41a3b220869182&amp;fccid=5c1cbf790497af17&amp;vjs=3</t>
@@ -603,19 +602,19 @@
     <t>https://www.indeed.com/rc/clk?jk=ac2600d958a9cf8c&amp;fccid=53676d5e93e90a6c&amp;vjs=3</t>
   </si>
   <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Br0tCqNwZUJ4PlbPuLNfz-NnFRw4YUJhOH1Rb9xuzCyqIKNzPrVJ0a1zCXewmt1MXW5ISsb94svsc_GWKGGOoDjBKNPaYpxLKsfBousHlCARBJj9OoethqKG9xUO22p1vqKMYr4eyIdfrPw1Xp7i8UT6sp0XQ0m8eluDHK7TSKu7tX0_Rkl1BJc85coIcMR3Z1ZLzbP_Q99kJyqarjIJmHdIyWDEHTD_ayzZ-hvsOQvTLDxIxgAkuzbJDn351k-ndIKZ0ehuEmypT3Qe9waecIwF8xQgSZTw-KC3zWwI78ErZ7XpnW6CEhhYhZoLZxh49A7lLMMm5ZP84pTB4Eco85u5jrvhzYydVjAvBItN-WRfiFA2ydUKVOW4m1JOYYDWNd_tGiHm6CIzE8CNl3fpzkt-41VvzqdjAVPzpWHuQsKN7E9c3W5b3X4rapDe-vStfAvcugtoqSngsA8IcwPZmL&amp;p=12&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DUSa2A3jafxocHQLDLLcXuN9STuyedxbGwl68EprraMeRt-Kr1OZ76Ay3sNlYV_c_E0wSUL9FGidVgInl2aHuwzzONl0AaJfVvBaYyaUmeroBJSauCoaWpiCdMoHqLV7Yvvz7iikD_wnaON1WcnL9PUt5sAFEKqV9xkanQn4cd074d75Y21uzCLY6k2_3_dTKKWonCv3I16R-QNJ2pU2auCQ2eMcVRhBTF5c9KCkqalEi64Epw8M6rm6KRShlCSAnBb7zy2KEN8vxgiLLIukabt08Smi2Ip5ym0hK3Qva5ZpiCnRV9lg43dOf2de_HTuLfyU9xrZ4zypP9zEsWg8XVcz8M9ZSs9juiLU-LQVk1I5C9pCm0mSykrORhyeJ_6Xin7Ja_WQp2Dvr7MutspYePtuSTDQlopwESwlP-ATJ7MjhpWie7Rfq7-xqcggoKHiyHXoo1vQC1E8fzTao0y7Jl87YtzcmWf8GNgZTnFDsDU0Y4673CMhDZ&amp;p=13&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUDEmkxVzwqwL2sqGE-SkWksyemrrA1nf-lBmVe1Jrq9wniqu3PkGMu6Q8xJ2JufUF-7mj3wAc-qzNQOxbB79Ny60r31SuBdMPDarNt5IfdbyzF74_q-nV2H_LPYqASMeQLbeCTJ0IyUeC9kepQilO1XBRunlbtrPwOPXJR00kt58fBpg568MnpsgzoQzxs2CLLl7GUycxmRClVRmPQ9AG-unvzPenpoDxfHZEx_JIpU2WMGe18za3Sh3Crj7KWzzTePR1DUct3KNwz9U840rpt16ON4eWVyr5FzSsyyPwCnXXdju5YCf0yvEL_lPpYCt5h73W82OU_pDC9wtZ49qy2lHioDWflvRmWoRA_oQDd7aOW1YPKYV6_9M19LvyVFimjGF-UR8bEb8YLreYLDLfr7io6gvmD_bPwlF8IxG6oYyYk12zLIvGAl-0t8RYmgYtzxv1onqsiKNoAPvOzl-aabxUFWSY2Y8E&amp;p=14&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXHtdaW6_IpPcunpDMWCAr8DuAQnlaBHKsAy5_wtA2o6QPdotmOPBSyPX7Fe0YQ2DJRmxj6urKrFbl0KLq0a0kz4Wv1UF9e4mq6Ox_d46Sid3F8aUoXtD9DtgguHVPQ8MRkW9Y-sUpfUOdbVC4zEkrFgreg2XZ4W5hfs3k57kZHcsVAYs5b3kdhuhYA5orzvXOkwAVKiswvpCM65xyJpxGgAdRzKx9Lk0j007euhSyL1stLNQAfAjfJoQAK6QEQLdwq5PDh2pqA80Vo-ZFW3NrfzrE0pR1-Q4Y2T7D9X-68MXtyiGo2bHMIgCc_Hkl3NLchetyJJs6PuMs2GZPBHMtjVAFcpmMCp8B2xfzmC4FXAi-8NwoGPn3SeoD1kHP-Ww7Jjc9Cw_zo0kmp9U-VEGxYmTTneXcpFnTJLM4Ssp4McnA==&amp;p=15&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcc9p-ZxupPUH7KtN-W0aMsStBriIPjWgFcalWqcYJk_zew2ZKqOlo0Q43gIvfwFE8JdbpHfIxmTKDrtmoPDUu1hMVa9m1t2AXXaoWKT2ZVqvchmXO6lrYDFNSIvob4UVdZeRaNfHSABcIfR4rdnYXwL8X9-ybdnLaHtpG1jG2y6YhMULQGYenLsxdUirSuQHF9T8DS25gnDYHb5_A4PbhIawhFrMkYXgzePKlHNrFlXBSWgLOapFgR_BbD-I9t8Ig8_MxUqy1h5z-pj1ea38Cg1jhOO6Jey_lQ7j_bjeUyf00BCCrmhQ-7_RRoAlT8H9Ns=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0D3zZ_ASCFyv4hXru9Ra-w9vKx6N-cVz9iFs_U0KKU9Ly96rTwWsyIpKfrmOmVujuNfJTBAhsdNY0sR5VFMFtXR4WMcr4suWhm9bZY1RSQPvgHUVdbuvAUM2TCYxNBBRLx3DWnRDz09pqDaJNdzIpDrpJJcp-SS6V2SSmD4rWc4ad66YN81fymwDakC6F3vi5OY09N8C21XwFPKEEx3tnBkPzLluPZXPpXvBh-NX5cenDeXiZ1Pvdp-cexBDv9hxS0zo-nN5Qerv1y-flLxAfrDNtUZhQLByKppRvAUr5S83S8jpHzvhMyqHt_V2sEdnZwxFD6KsF0Zewal3NrFg0QYbVJkZx8mo_D0Vj1mbX1VKbPMVxct6HZLBYu4ETw5z6-TKf6mej_ZXDYhDJBCqxL_4TRmk-jRuMTeka9dEE0QEg==&amp;p=12&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFi1nmQQWK2fa3N4W3y7EUOEocZkWPqKP_f_xZ7ne8RUTCgxjAcFcNO0xqLvH83iiV9mHQf9kDK_xK06IcIYlUSkmnCph443TwffdBLyaC1gkZ-txSi65KXKu5nFLUxgHbHRrpoUff44QT1A8KyLhhh8OOu2B2O02Y67rfUn1WHJ0D44_lUdLUQNqsNc1L3hACrcWiFSpYmFPpbqsJSeQLWN68lZKmofDVA6Yjq1ZpvaNr9VVi_FnIx9p0joF6ht_JZhqvI5uIyvmgSMYDfUHBP31g80tom6l2PBSihXW8cl1ULlMIDZW1goeyEb2MCQgjyKbbipjfRJwmZJ1n1aWzEOY49UKwfGDF-dgRvrkLTV1mRZWeQE9WO6daBbZGUbGNg0OSvEvs5K_vpzaCnkMjbVuNalbMkQ8_xZCdgwxxjLg3fnNQSLKnS9r0q3ZU8uvrpxny91xcq4E1EvLN8LeugkhNvKA7obEv9nIv81g51UPA8Ay3801dKCkO2xmOkQD2YNJMJuAH41w3iup8fmg8rXRzUtsyIP6uEXkTb-iOd8Sg70sZMHtw3wYlJw9wFZmzWR1JgEX_dD64jGOiKL1t5v1Fr9X82LU9XuzJP7dBT2ltBQWk_S3tnaoO_Ic39AxHydxnggQQgdGLNFJeAlxi&amp;p=13&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C7zxegYuOm4p-Y3xpypINpn_zgkLsA0z_ct-Rdj5ZKKjlPUYi9cCrP0RuCbsIG7sFNQhnFlitvd80nRBokpAUPCjqDqDYQqmgaqwwtyUMNza_jtcVaOB55glsVKCQEhTJveDsoIGCcFSvXONDcHhb05wRBnwvY6GjHkD4RIxIoNCWLjHtOvCCy3RGZVsPfgkMcuh-1wLCZUt-S1gopvTY9BK-sejFjS2z49DrIoqR0FwxpbWeTbDgKT58F2pRfkRQFDroM5oeqZaMO25RzM3tolBtcNmw8FkMAJCEklue9oMuboHeJShzOiD3Ntwck5bw7x8wHwLZ2OySgPXwT0O7leT5sdgpls1EkojrGlbkfSPdPFQlYhRjXLfNOv-EIyAfOUfR9p2HSOM2Jl_2eRh8tM4UlZF2uWqdaJKN3MDfcYW5CGrOrhvUZ84TrYLQmqMVn_ZtBtcPlqzQBObEkcoRsjI9iq2yRVx2Of0tGTfB91jwb4IkwT8-v&amp;p=14&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Br0tCqNwZUJ4PlbPuLNfz-NnFRw4YUJhOH1Rb9xuzCyqIKNzPrVJ0a1zCXewmt1MXW5ISsb94svsc_GWKGGOoDjBKNPaYpxLKsfBousHlCARBJj9OoethqKG9xUO22p1vqKMYr4eyIdfrPw1Xp7i8UT6sp0XQ0m8eluDHK7TSKu3knTX2Yc-ujmXLrDUNszJyuTHS6s7TvrOtCFnr_DOSCeaqEXLUwK2TQDQWIECixGe4FBW3y8wuMn1jZJCI4Ctr2GdClnTDJQhy5e7-3jbT3sW4n-3mW5jF6VIplmUKlv6CmsKhp7EIKRt1b60jL1rMvtUKA_GYSyFdYm8hcE_tSOQ5PGBh9wcgWf_GI_TToBVntZ1NPRRTGr6YS0J8cr3d94o0GScIgBhnQhgHy3ZZY2WYypAsxE9LsTusU8y8ZlJ8q73M2oGnOb1MlmkR0PDXLTanl-85N9dsSy5IckOlA&amp;p=15&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BKwMOZH4fgpIIWSrlpgS0tSkW3tfilVH9rzQFVfnBGL0LF-9vo0acj_8Lu0aVcpXEecxr-cGbZe-ZtfwA35kWTEKKmsc2GXJ4fmaJw4BivFIXkvrntpE1A-MOJZIwbRTwczkqBbsVMqZKRvq5k9Yzpk9zfduTSHcdlcWbqDv8869dlOLET_JpbyHpxyFqs_Ap8G3BgwRuXuyovM8b8374HRiSHCf3O1p2bvS7r-T9whxdCh7dY8bZC88ZWV87JFi4UnWND9kVgsP_FXAzw-8nk2geLaojNQ2hr3GiPRMtzRTc9zo3g6Vv124pxBzz5hiVflOjSYQFzr9r2e8tc7pQZHZmNiQ7amZCAI47WgkyXUKLjfMLhjYZ_DphVLmMEAy04n1Luu7h7miWsWEO4IpdSKX3UJC-vXHVhtsv7GnW74s8Dai7SzQwOl5_4heNXzRb-s7VWZfBN58cDmkhnnJIysuZMx6LIq7o=&amp;p=16&amp;fvj=0&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -3466,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -3510,13 +3509,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
         <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -3531,7 +3530,7 @@
         <v>145</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
@@ -3560,7 +3559,7 @@
         <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
@@ -3575,7 +3574,7 @@
         <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
